--- a/biology/Histoire de la zoologie et de la botanique/Johannes_Theodor_Reinhardt/Johannes_Theodor_Reinhardt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johannes_Theodor_Reinhardt/Johannes_Theodor_Reinhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Theodor Reinhardt est un zoologiste danois, né le 3 décembre 1816 à Copenhague et mort le 23 octobre 1882 (à 65 ans) à Frederiksberg, près de Copenhague.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Johannes Christopher Hagemann Reinhardt (1776-1845), est originaire de Norvège, alors sous domination danoise, est professeur de zoologie à l'université de Copenhague. Malgré les encouragements de son père, il ne réussit pas à terminer ses études.
 Il part, en 1845, pour une exploration autour du monde à bord du vaisseau hollandais Galathea et visite l'Inde, les Philippines, la Chine, le Japon, les îles Sandwich et l'Amérique du Sud.
@@ -547,7 +561,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1830 : Om Grönlands Fiske. In: H. C. Örsted. Overs. Danske Vidensk. Selsk. Forhandl Kjobenhavn, 1829–1830 : 15–20.
 1836 : [Om den Islandske Vaagmaer.--Ichthyologiske bidrag til Grönlands fauna]. Overs. Kgl. Danske Vidensk. Selsk. Forhand. (Copenhague) pour 1835-1836 : 8-12. [publié également en 1837 dans Kgl. Danske Vidensk. Selsk. Natur. Math. Afhandl., v. 6 : cvii-cxi.]
